--- a/Assignment Reports/Assignment 4/Spreadsheet.xlsx
+++ b/Assignment Reports/Assignment 4/Spreadsheet.xlsx
@@ -145,11 +145,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1577832110"/>
-        <c:axId val="882422697"/>
+        <c:axId val="655730686"/>
+        <c:axId val="1465444569"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1577832110"/>
+        <c:axId val="655730686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -201,10 +201,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="882422697"/>
+        <c:crossAx val="1465444569"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="882422697"/>
+        <c:axId val="1465444569"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -279,7 +279,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1577832110"/>
+        <c:crossAx val="655730686"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -560,7 +560,7 @@
         <v>10.0</v>
       </c>
       <c r="B3" s="1">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         <v>100.0</v>
       </c>
       <c r="B4" s="1">
-        <v>99.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="5">
@@ -576,7 +576,7 @@
         <v>1000.0</v>
       </c>
       <c r="B5" s="1">
-        <v>999.0</v>
+        <v>3430.0</v>
       </c>
     </row>
     <row r="6">
@@ -584,7 +584,7 @@
         <v>10000.0</v>
       </c>
       <c r="B6" s="1">
-        <v>9999.0</v>
+        <v>49935.0</v>
       </c>
     </row>
   </sheetData>
